--- a/biology/Botanique/Maihueniopsis_darwinii/Maihueniopsis_darwinii.xlsx
+++ b/biology/Botanique/Maihueniopsis_darwinii/Maihueniopsis_darwinii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maihueniopsis darwinii est une plante originaire du sud de l'Argentine, dans les régions du détroit de Magellan, du Rio Negro, de Santa Cruz et du Chubut. Présente jusqu'à la latitude 49° sud.
 Très résistante au froid (−20 °C), elle convient bien en rocaille avec une légère protection contre les pluies hivernales.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Opuntia darwinii
 Tephrocactus darwinii</t>
